--- a/Horarios2025_PrimerCuatrimestre.xlsx
+++ b/Horarios2025_PrimerCuatrimestre.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-120" windowWidth="2265" windowHeight="10800"/>
+    <workbookView xWindow="0" yWindow="-120" windowWidth="2265" windowHeight="10800" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="2025" sheetId="1" r:id="rId1"/>
+    <sheet name="2026" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="22">
   <si>
     <t>RECREO</t>
   </si>
@@ -81,13 +82,22 @@
   </si>
   <si>
     <t>NODO</t>
+  </si>
+  <si>
+    <t>MODULO 1</t>
+  </si>
+  <si>
+    <t>MODULO 2</t>
+  </si>
+  <si>
+    <t>MODULO 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,8 +128,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,6 +173,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -169,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -199,6 +228,27 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -522,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1141,4 +1191,341 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:J28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:J28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="11.42578125" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C2" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="22"/>
+      <c r="F2" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C3" s="12">
+        <v>0.625</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C4" s="12">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="H4" s="19"/>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="12">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="H5" s="19"/>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C6" s="12">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0.65277777777777801</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="H6" s="19"/>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C7" s="12">
+        <v>0.65277777777777801</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0.65972222222222299</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="H7" s="19"/>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C8" s="12">
+        <v>0.65972222222222199</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="H8" s="19"/>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C9" s="12">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0.67361111111111205</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="H9" s="19"/>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="12">
+        <v>0.67361111111111105</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0.68055555555555602</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="H10" s="19"/>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="12">
+        <v>0.68055555555555503</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0.687500000000001</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="20"/>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="12">
+        <v>0.6875</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0.69444444444444497</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="12">
+        <v>0.69444444444444398</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0.70138888888888995</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="H13" s="18"/>
+      <c r="J13" s="18"/>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C14" s="12">
+        <v>0.70138888888888895</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0.70833333333333404</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="H14" s="18"/>
+      <c r="J14" s="18"/>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="12">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0.71527777777777901</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="H15" s="18"/>
+      <c r="J15" s="18"/>
+    </row>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C16" s="12">
+        <v>0.71527777777777701</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0.72222222222222299</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="H16" s="18"/>
+      <c r="J16" s="18"/>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C17" s="12">
+        <v>0.72222222222222199</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0.72916666666666796</v>
+      </c>
+      <c r="E17" s="16"/>
+      <c r="H17" s="18"/>
+      <c r="J17" s="18"/>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C18" s="12">
+        <v>0.72916666666666596</v>
+      </c>
+      <c r="D18" s="12">
+        <v>0.73611111111111205</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="H18" s="18"/>
+      <c r="J18" s="18"/>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C19" s="12">
+        <v>0.73611111111111105</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0.74305555555555602</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="H19" s="18"/>
+      <c r="J19" s="18"/>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C20" s="12">
+        <v>0.74305555555555503</v>
+      </c>
+      <c r="D20" s="12">
+        <v>0.750000000000001</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C21" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0.75694444444444597</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C22" s="12">
+        <v>0.75694444444444398</v>
+      </c>
+      <c r="D22" s="12">
+        <v>0.76388888888888995</v>
+      </c>
+      <c r="E22" s="16"/>
+      <c r="H22" s="19"/>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C23" s="12">
+        <v>0.76388888888888795</v>
+      </c>
+      <c r="D23" s="12">
+        <v>0.77083333333333504</v>
+      </c>
+      <c r="E23" s="16"/>
+      <c r="H23" s="19"/>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C24" s="12">
+        <v>0.77083333333333304</v>
+      </c>
+      <c r="D24" s="12">
+        <v>0.77777777777777901</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="H24" s="19"/>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C25" s="12">
+        <v>0.77777777777777701</v>
+      </c>
+      <c r="D25" s="12">
+        <v>0.78472222222222399</v>
+      </c>
+      <c r="E25" s="16"/>
+      <c r="H25" s="19"/>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C26" s="12">
+        <v>0.78472222222222199</v>
+      </c>
+      <c r="D26" s="12">
+        <v>0.79166666666666796</v>
+      </c>
+      <c r="E26" s="16"/>
+      <c r="H26" s="19"/>
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C27" s="12">
+        <v>0.79166666666666596</v>
+      </c>
+      <c r="D27" s="12">
+        <v>0.79861111111111305</v>
+      </c>
+      <c r="E27" s="16"/>
+      <c r="H27" s="19"/>
+    </row>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C28" s="12">
+        <v>0.79861111111111005</v>
+      </c>
+      <c r="D28" s="12">
+        <v>0.80555555555555702</v>
+      </c>
+      <c r="E28" s="16"/>
+      <c r="H28" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="J12:J19"/>
+    <mergeCell ref="E3:E10"/>
+    <mergeCell ref="E12:E19"/>
+    <mergeCell ref="E21:E28"/>
+    <mergeCell ref="H12:H19"/>
+    <mergeCell ref="H3:H10"/>
+    <mergeCell ref="H21:H28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>